--- a/UMAC Sample in Beijing.xlsx
+++ b/UMAC Sample in Beijing.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msang\Documents\样机管理\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5931B09-680B-4DEB-AD7D-EA7B01603CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3525" yWindow="3510" windowWidth="22455" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="现存2020-3-4" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +24,256 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订货号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定资产编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC-R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机箱12槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C000KE5F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20S1918056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C000KZ88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKT1906270408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">POWER UMAC 465 CPU </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4045-D00-100-0_107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-4269-00-1215-B0100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C000M1UK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4002A6262-3232-B00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC-24E3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC-59E3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C000K8UT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKT19032017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4027A-00-0200-B200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKT1906270403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC-65E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C000K6C3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3575A-00-0000-B100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC-65E, 24-IN/24-OUT SOURCING OPTICALLY ISOLATED, SELF-PROTECTED BOARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C000KE1F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKT19032019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC-84E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C000LRSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XY2-100振镜卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源短路，损坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C000KZ8S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">POWER UMAC 465 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKT1906270409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C000K6D8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKT1906270402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKT1906270410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C000KZZ8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKT1911120020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4002A5050-3131-B00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC-24E3, 4 AXIS DIGITAL PWM, DIGITAL FEEDBACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C000JYFY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3927A-00-0XY2-B200</t>
+  </si>
+  <si>
+    <t>3-3927A-00-0XY2-B200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C000HRWA</t>
+  </si>
+  <si>
+    <t>20S191818065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C000KZZM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4002A6262-4141-B00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20S1918055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C000KZT8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKT1911120030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C000KZ89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +284,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,15 +292,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +710,298 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>